--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-3, Ф-9-3, Р-9-1-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-3, Ф-9-3, Р-9-1-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="М-9-3, Ф-9-3, Р-9-1-2" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>Вторник</t>
   </si>
   <si>
-    <t>Бочаров Мирослав Михайлович</t>
-  </si>
-  <si>
     <t>Предмет</t>
   </si>
   <si>
@@ -41,88 +38,109 @@
     <t>Учитель</t>
   </si>
   <si>
-    <t>Кабинет</t>
-  </si>
-  <si>
     <t>Евлаш Антон Юрьевич</t>
   </si>
   <si>
+    <t>физика</t>
+  </si>
+  <si>
+    <t>М-9-3</t>
+  </si>
+  <si>
+    <t>Пивоварова</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Исаков Гордей Романович</t>
+  </si>
+  <si>
+    <t>Крылов Данил Евгеньевич</t>
+  </si>
+  <si>
+    <t>Урок для практических занятий (классрум на время)</t>
+  </si>
+  <si>
+    <t>Classroom+Zoom</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Лынин Илья Сергеевич</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Р-9-1</t>
+  </si>
+  <si>
+    <t>Симонян</t>
+  </si>
+  <si>
+    <t>Шубенок Кирилл Андреевич</t>
+  </si>
+  <si>
+    <t>биология</t>
+  </si>
+  <si>
+    <t>Р-9-1-2, Р-9-2-2</t>
+  </si>
+  <si>
+    <t>Смолянова</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>информатика</t>
+  </si>
+  <si>
+    <t>Р-9-1-2</t>
+  </si>
+  <si>
+    <t>Дятлов</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>Булатова</t>
+  </si>
+  <si>
     <t>геометрия</t>
   </si>
   <si>
-    <t>М-9-3</t>
-  </si>
-  <si>
     <t>Рязанский</t>
   </si>
   <si>
-    <t>Исаков Гордей Романович</t>
-  </si>
-  <si>
-    <t>физика</t>
-  </si>
-  <si>
-    <t>Пивоварова</t>
-  </si>
-  <si>
-    <t>Крылов Данил Евгеньевич</t>
-  </si>
-  <si>
-    <t>Лынин Илья Сергеевич</t>
-  </si>
-  <si>
-    <t>Русский</t>
-  </si>
-  <si>
-    <t>Р-9-1</t>
-  </si>
-  <si>
-    <t>Симонян</t>
-  </si>
-  <si>
-    <t>Шубенок Кирилл Андреевич</t>
-  </si>
-  <si>
-    <t>биология</t>
-  </si>
-  <si>
-    <t>Р-9-1-2, Р-9-2-2</t>
-  </si>
-  <si>
-    <t>Смолянова</t>
-  </si>
-  <si>
-    <t>Английский</t>
-  </si>
-  <si>
-    <t>см.таблицу после субботы</t>
-  </si>
-  <si>
-    <t>информатика</t>
-  </si>
-  <si>
-    <t>Р-9-1-2</t>
-  </si>
-  <si>
-    <t>Дятлов</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>физ-ра</t>
-  </si>
-  <si>
-    <t>спорт.зал</t>
-  </si>
-  <si>
-    <t>ОКНО</t>
-  </si>
-  <si>
-    <t>алгебра</t>
-  </si>
-  <si>
-    <t>Булатова</t>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>обществознание</t>
+  </si>
+  <si>
+    <t>Жигулин</t>
+  </si>
+  <si>
+    <t>Пятница</t>
   </si>
   <si>
     <t>химия</t>
@@ -131,34 +149,10 @@
     <t>Мянник</t>
   </si>
   <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>География</t>
-  </si>
-  <si>
-    <t>Булатова/Щербина</t>
-  </si>
-  <si>
-    <t>306/201</t>
-  </si>
-  <si>
-    <t>обществознание</t>
-  </si>
-  <si>
-    <t>Жигулин</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
     <t>Литература</t>
   </si>
   <si>
     <t>Перхулова</t>
-  </si>
-  <si>
-    <t>литература</t>
   </si>
   <si>
     <t>Суббота</t>
@@ -177,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +181,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +226,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -267,14 +297,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -282,14 +343,50 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -305,43 +402,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9077325" cy="2781300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12211050"/>
-          <a:ext cx="9077325" cy="2781300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,120 +668,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист20"/>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="19.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.625" style="1"/>
+    <col min="8" max="8" width="12.625" style="3"/>
+    <col min="9" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7">
-        <v>406</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7">
-        <v>308</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7">
-        <v>308</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -734,14 +790,14 @@
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7">
-        <v>305</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -754,108 +810,99 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -868,366 +915,350 @@
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="E17" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="7">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="7">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>3</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>4</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>5</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="7">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>7</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>8</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>9</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="D40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="7">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>7</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>2</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>9</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>1</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="7">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>2</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="7">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>3</v>
       </c>
@@ -1240,94 +1271,85 @@
       <c r="D42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>4</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+      <c r="E43" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>6</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>7</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="E46" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="7">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>8</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="7">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>9</v>
       </c>
@@ -1337,51 +1359,49 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>1</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="E52" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="7">
-        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,16 +1409,16 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="E53" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="7">
-        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,16 +1426,16 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="7">
-        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,42 +1443,32 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="7">
-        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>5</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="7">
-        <v>204</v>
-      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>6</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -1467,18 +1477,10 @@
       <c r="A58" s="7">
         <v>7</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="7">
-        <v>306</v>
-      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
@@ -3439,18 +3441,23 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D43:E43"/>
+  <mergeCells count="14">
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-3, Ф-9-3, Р-9-1-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-3, Ф-9-3, Р-9-1-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="М-9-3, Ф-9-3, Р-9-1-2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="48">
   <si>
     <t>Вторник</t>
   </si>
@@ -65,73 +65,76 @@
     <t>Classroom+Zoom</t>
   </si>
   <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Лынин Илья Сергеевич</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Р-9-1</t>
+  </si>
+  <si>
+    <t>Симонян</t>
+  </si>
+  <si>
+    <t>Шубенок Кирилл Андреевич</t>
+  </si>
+  <si>
+    <t>биология</t>
+  </si>
+  <si>
+    <t>Р-9-1-2, Р-9-2-2</t>
+  </si>
+  <si>
+    <t>Смолянова</t>
+  </si>
+  <si>
+    <t>Спецмат</t>
+  </si>
+  <si>
+    <t>информатика</t>
+  </si>
+  <si>
+    <t>Р-9-1-2</t>
+  </si>
+  <si>
+    <t>Дятлов</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>алгебра</t>
+  </si>
+  <si>
+    <t>Булатова</t>
+  </si>
+  <si>
+    <t>геометрия</t>
+  </si>
+  <si>
+    <t>Рязанский</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>ОТДЫХ</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
     <t>Физика</t>
-  </si>
-  <si>
-    <t>Лынин Илья Сергеевич</t>
-  </si>
-  <si>
-    <t>Русский</t>
-  </si>
-  <si>
-    <t>Р-9-1</t>
-  </si>
-  <si>
-    <t>Симонян</t>
-  </si>
-  <si>
-    <t>Шубенок Кирилл Андреевич</t>
-  </si>
-  <si>
-    <t>биология</t>
-  </si>
-  <si>
-    <t>Р-9-1-2, Р-9-2-2</t>
-  </si>
-  <si>
-    <t>Смолянова</t>
-  </si>
-  <si>
-    <t>Информатика</t>
-  </si>
-  <si>
-    <t>информатика</t>
-  </si>
-  <si>
-    <t>Р-9-1-2</t>
-  </si>
-  <si>
-    <t>Дятлов</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Английский</t>
-  </si>
-  <si>
-    <t>Английский язык</t>
-  </si>
-  <si>
-    <t>Спецмат</t>
-  </si>
-  <si>
-    <t>алгебра</t>
-  </si>
-  <si>
-    <t>Булатова</t>
-  </si>
-  <si>
-    <t>геометрия</t>
-  </si>
-  <si>
-    <t>Рязанский</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>География</t>
   </si>
   <si>
     <t>обществознание</t>
@@ -217,7 +220,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -329,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -376,6 +385,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -671,7 +689,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -963,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,13 +989,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>8</v>
@@ -988,13 +1006,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>8</v>
@@ -1005,13 +1023,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>8</v>
@@ -1022,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>8</v>
@@ -1052,7 +1070,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1076,17 +1094,12 @@
       <c r="A28" s="7">
         <v>1</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="B28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -1116,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>8</v>
@@ -1196,20 +1209,20 @@
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
+      <c r="A38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -1229,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>8</v>
@@ -1246,13 +1259,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>8</v>
@@ -1295,13 +1308,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>8</v>
@@ -1320,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,7 +1380,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1392,13 +1405,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>8</v>
@@ -1409,13 +1422,13 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>8</v>
@@ -1426,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>8</v>
@@ -1443,13 +1456,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>8</v>
@@ -3445,7 +3458,7 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>

--- a/botCode/workWithExcelFile/excelDatabase/9class/М-9-3, Ф-9-3, Р-9-1-2.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/9class/М-9-3, Ф-9-3, Р-9-1-2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>Вторник</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Смолянова</t>
+  </si>
+  <si>
+    <t>Царёв Василий Константинович</t>
   </si>
   <si>
     <t>Спецмат</t>
@@ -184,32 +187,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -217,10 +215,9 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,23 +227,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFF4B084"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor rgb="FFBDD6EE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -306,39 +309,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -355,56 +330,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -688,20 +631,18 @@
   <sheetPr codeName="Лист20"/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="3"/>
-    <col min="9" max="16384" width="12.625" style="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" style="1" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,6 +650,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -718,6 +660,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -734,66 +677,69 @@
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -808,12 +754,13 @@
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -828,59 +775,66 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="F9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -890,22 +844,25 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -919,6 +876,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="7"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -933,151 +891,162 @@
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
         <v>1</v>
@@ -1089,189 +1058,204 @@
         <v>3</v>
       </c>
       <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>3</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>5</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="15" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>6</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>7</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>8</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>9</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="E39" s="7"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>1</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>2</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>3</v>
       </c>
@@ -1284,76 +1268,81 @@
       <c r="D42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>4</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>6</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="15" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>7</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>8</v>
       </c>
@@ -1361,8 +1350,9 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>9</v>
       </c>
@@ -1370,24 +1360,27 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
         <v>1</v>
@@ -1399,76 +1392,81 @@
         <v>3</v>
       </c>
       <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>1</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>5</v>
       </c>
@@ -1476,8 +1474,9 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>6</v>
       </c>
@@ -1485,8 +1484,9 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>7</v>
       </c>
@@ -1494,8 +1494,9 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>8</v>
       </c>
@@ -1503,8 +1504,9 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>9</v>
       </c>
@@ -1512,1947 +1514,3628 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H276" s="3"/>
+    </row>
+    <row r="277" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H280" s="3"/>
+    </row>
+    <row r="281" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H282" s="3"/>
+    </row>
+    <row r="283" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H283" s="3"/>
+    </row>
+    <row r="284" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H285" s="3"/>
+    </row>
+    <row r="286" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H286" s="3"/>
+    </row>
+    <row r="287" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H287" s="3"/>
+    </row>
+    <row r="288" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H289" s="3"/>
+    </row>
+    <row r="290" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H290" s="3"/>
+    </row>
+    <row r="291" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H292" s="3"/>
+    </row>
+    <row r="293" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H293" s="3"/>
+    </row>
+    <row r="294" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H294" s="3"/>
+    </row>
+    <row r="295" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H295" s="3"/>
+    </row>
+    <row r="296" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H297" s="3"/>
+    </row>
+    <row r="298" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H298" s="3"/>
+    </row>
+    <row r="299" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H299" s="3"/>
+    </row>
+    <row r="300" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H301" s="3"/>
+    </row>
+    <row r="302" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H302" s="3"/>
+    </row>
+    <row r="303" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H304" s="3"/>
+    </row>
+    <row r="305" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H305" s="3"/>
+    </row>
+    <row r="306" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H306" s="3"/>
+    </row>
+    <row r="307" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H308" s="3"/>
+    </row>
+    <row r="309" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H311" s="3"/>
+    </row>
+    <row r="312" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H313" s="3"/>
+    </row>
+    <row r="314" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H314" s="3"/>
+    </row>
+    <row r="315" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H316" s="3"/>
+    </row>
+    <row r="317" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H319" s="3"/>
+    </row>
+    <row r="320" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H320" s="3"/>
+    </row>
+    <row r="321" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H322" s="3"/>
+    </row>
+    <row r="323" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H323" s="3"/>
+    </row>
+    <row r="324" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H324" s="3"/>
+    </row>
+    <row r="325" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H325" s="3"/>
+    </row>
+    <row r="326" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H326" s="3"/>
+    </row>
+    <row r="327" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H327" s="3"/>
+    </row>
+    <row r="328" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H328" s="3"/>
+    </row>
+    <row r="329" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H332" s="3"/>
+    </row>
+    <row r="333" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H333" s="3"/>
+    </row>
+    <row r="334" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H334" s="3"/>
+    </row>
+    <row r="335" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H335" s="3"/>
+    </row>
+    <row r="336" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H336" s="3"/>
+    </row>
+    <row r="337" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H337" s="3"/>
+    </row>
+    <row r="338" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H338" s="3"/>
+    </row>
+    <row r="339" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H339" s="3"/>
+    </row>
+    <row r="340" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H340" s="3"/>
+    </row>
+    <row r="341" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H341" s="3"/>
+    </row>
+    <row r="342" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H342" s="3"/>
+    </row>
+    <row r="343" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H343" s="3"/>
+    </row>
+    <row r="344" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H344" s="3"/>
+    </row>
+    <row r="345" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H345" s="3"/>
+    </row>
+    <row r="346" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H346" s="3"/>
+    </row>
+    <row r="347" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H347" s="3"/>
+    </row>
+    <row r="348" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H348" s="3"/>
+    </row>
+    <row r="349" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H349" s="3"/>
+    </row>
+    <row r="350" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H350" s="3"/>
+    </row>
+    <row r="351" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H351" s="3"/>
+    </row>
+    <row r="352" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H352" s="3"/>
+    </row>
+    <row r="353" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H353" s="3"/>
+    </row>
+    <row r="354" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H354" s="3"/>
+    </row>
+    <row r="355" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H355" s="3"/>
+    </row>
+    <row r="356" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H356" s="3"/>
+    </row>
+    <row r="357" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H357" s="3"/>
+    </row>
+    <row r="358" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H358" s="3"/>
+    </row>
+    <row r="359" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H359" s="3"/>
+    </row>
+    <row r="360" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H360" s="3"/>
+    </row>
+    <row r="361" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H361" s="3"/>
+    </row>
+    <row r="362" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H362" s="3"/>
+    </row>
+    <row r="363" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H365" s="3"/>
+    </row>
+    <row r="366" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H366" s="3"/>
+    </row>
+    <row r="367" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H368" s="3"/>
+    </row>
+    <row r="369" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H369" s="3"/>
+    </row>
+    <row r="370" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H370" s="3"/>
+    </row>
+    <row r="371" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H371" s="3"/>
+    </row>
+    <row r="372" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H372" s="3"/>
+    </row>
+    <row r="373" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H373" s="3"/>
+    </row>
+    <row r="374" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H374" s="3"/>
+    </row>
+    <row r="375" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H375" s="3"/>
+    </row>
+    <row r="376" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H376" s="3"/>
+    </row>
+    <row r="377" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H377" s="3"/>
+    </row>
+    <row r="378" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H378" s="3"/>
+    </row>
+    <row r="379" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H379" s="3"/>
+    </row>
+    <row r="380" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H380" s="3"/>
+    </row>
+    <row r="381" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H381" s="3"/>
+    </row>
+    <row r="382" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H382" s="3"/>
+    </row>
+    <row r="383" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H383" s="3"/>
+    </row>
+    <row r="384" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H384" s="3"/>
+    </row>
+    <row r="385" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H385" s="3"/>
+    </row>
+    <row r="386" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H386" s="3"/>
+    </row>
+    <row r="387" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H387" s="3"/>
+    </row>
+    <row r="388" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H388" s="3"/>
+    </row>
+    <row r="389" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H389" s="3"/>
+    </row>
+    <row r="390" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H390" s="3"/>
+    </row>
+    <row r="391" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H391" s="3"/>
+    </row>
+    <row r="392" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H392" s="3"/>
+    </row>
+    <row r="393" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H393" s="3"/>
+    </row>
+    <row r="394" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H394" s="3"/>
+    </row>
+    <row r="395" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H395" s="3"/>
+    </row>
+    <row r="396" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H396" s="3"/>
+    </row>
+    <row r="397" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H397" s="3"/>
+    </row>
+    <row r="398" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H398" s="3"/>
+    </row>
+    <row r="399" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H399" s="3"/>
+    </row>
+    <row r="400" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H400" s="3"/>
+    </row>
+    <row r="401" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H401" s="3"/>
+    </row>
+    <row r="402" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H402" s="3"/>
+    </row>
+    <row r="403" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H403" s="3"/>
+    </row>
+    <row r="404" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H404" s="3"/>
+    </row>
+    <row r="405" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H405" s="3"/>
+    </row>
+    <row r="406" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H406" s="3"/>
+    </row>
+    <row r="407" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H407" s="3"/>
+    </row>
+    <row r="408" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H408" s="3"/>
+    </row>
+    <row r="409" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H409" s="3"/>
+    </row>
+    <row r="410" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H410" s="3"/>
+    </row>
+    <row r="411" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H411" s="3"/>
+    </row>
+    <row r="412" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H412" s="3"/>
+    </row>
+    <row r="413" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H413" s="3"/>
+    </row>
+    <row r="414" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H414" s="3"/>
+    </row>
+    <row r="415" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H415" s="3"/>
+    </row>
+    <row r="416" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H416" s="3"/>
+    </row>
+    <row r="417" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H417" s="3"/>
+    </row>
+    <row r="418" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H418" s="3"/>
+    </row>
+    <row r="419" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H419" s="3"/>
+    </row>
+    <row r="420" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H420" s="3"/>
+    </row>
+    <row r="421" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H421" s="3"/>
+    </row>
+    <row r="422" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H422" s="3"/>
+    </row>
+    <row r="423" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H423" s="3"/>
+    </row>
+    <row r="424" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H424" s="3"/>
+    </row>
+    <row r="425" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H425" s="3"/>
+    </row>
+    <row r="426" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H426" s="3"/>
+    </row>
+    <row r="427" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H427" s="3"/>
+    </row>
+    <row r="428" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H428" s="3"/>
+    </row>
+    <row r="429" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H429" s="3"/>
+    </row>
+    <row r="430" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H430" s="3"/>
+    </row>
+    <row r="431" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H431" s="3"/>
+    </row>
+    <row r="432" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H432" s="3"/>
+    </row>
+    <row r="433" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H433" s="3"/>
+    </row>
+    <row r="434" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H434" s="3"/>
+    </row>
+    <row r="435" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H435" s="3"/>
+    </row>
+    <row r="436" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H436" s="3"/>
+    </row>
+    <row r="437" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H437" s="3"/>
+    </row>
+    <row r="438" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H438" s="3"/>
+    </row>
+    <row r="439" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H439" s="3"/>
+    </row>
+    <row r="440" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H440" s="3"/>
+    </row>
+    <row r="441" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H441" s="3"/>
+    </row>
+    <row r="442" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H442" s="3"/>
+    </row>
+    <row r="443" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H443" s="3"/>
+    </row>
+    <row r="444" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H444" s="3"/>
+    </row>
+    <row r="445" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H445" s="3"/>
+    </row>
+    <row r="446" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H446" s="3"/>
+    </row>
+    <row r="447" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H447" s="3"/>
+    </row>
+    <row r="448" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H448" s="3"/>
+    </row>
+    <row r="449" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H449" s="3"/>
+    </row>
+    <row r="450" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H450" s="3"/>
+    </row>
+    <row r="451" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H451" s="3"/>
+    </row>
+    <row r="452" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H452" s="3"/>
+    </row>
+    <row r="453" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H453" s="3"/>
+    </row>
+    <row r="454" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H454" s="3"/>
+    </row>
+    <row r="455" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H455" s="3"/>
+    </row>
+    <row r="456" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H456" s="3"/>
+    </row>
+    <row r="457" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H457" s="3"/>
+    </row>
+    <row r="458" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H458" s="3"/>
+    </row>
+    <row r="459" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H459" s="3"/>
+    </row>
+    <row r="460" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H460" s="3"/>
+    </row>
+    <row r="461" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H461" s="3"/>
+    </row>
+    <row r="462" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H462" s="3"/>
+    </row>
+    <row r="463" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H463" s="3"/>
+    </row>
+    <row r="464" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H464" s="3"/>
+    </row>
+    <row r="465" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H465" s="3"/>
+    </row>
+    <row r="466" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H466" s="3"/>
+    </row>
+    <row r="467" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H467" s="3"/>
+    </row>
+    <row r="468" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H468" s="3"/>
+    </row>
+    <row r="469" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H469" s="3"/>
+    </row>
+    <row r="470" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H470" s="3"/>
+    </row>
+    <row r="471" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H471" s="3"/>
+    </row>
+    <row r="472" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H472" s="3"/>
+    </row>
+    <row r="473" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H473" s="3"/>
+    </row>
+    <row r="474" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H474" s="3"/>
+    </row>
+    <row r="475" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H475" s="3"/>
+    </row>
+    <row r="476" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H476" s="3"/>
+    </row>
+    <row r="477" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H477" s="3"/>
+    </row>
+    <row r="478" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H478" s="3"/>
+    </row>
+    <row r="479" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H479" s="3"/>
+    </row>
+    <row r="480" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H480" s="3"/>
+    </row>
+    <row r="481" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H481" s="3"/>
+    </row>
+    <row r="482" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H482" s="3"/>
+    </row>
+    <row r="483" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H483" s="3"/>
+    </row>
+    <row r="484" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H484" s="3"/>
+    </row>
+    <row r="485" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H485" s="3"/>
+    </row>
+    <row r="486" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H486" s="3"/>
+    </row>
+    <row r="487" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H487" s="3"/>
+    </row>
+    <row r="488" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H488" s="3"/>
+    </row>
+    <row r="489" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H489" s="3"/>
+    </row>
+    <row r="490" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H490" s="3"/>
+    </row>
+    <row r="491" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H491" s="3"/>
+    </row>
+    <row r="492" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H492" s="3"/>
+    </row>
+    <row r="493" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H493" s="3"/>
+    </row>
+    <row r="494" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H495" s="3"/>
+    </row>
+    <row r="496" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H496" s="3"/>
+    </row>
+    <row r="497" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H497" s="3"/>
+    </row>
+    <row r="498" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H498" s="3"/>
+    </row>
+    <row r="499" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H499" s="3"/>
+    </row>
+    <row r="500" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H500" s="3"/>
+    </row>
+    <row r="501" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H501" s="3"/>
+    </row>
+    <row r="502" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H502" s="3"/>
+    </row>
+    <row r="503" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H503" s="3"/>
+    </row>
+    <row r="504" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H504" s="3"/>
+    </row>
+    <row r="505" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H505" s="3"/>
+    </row>
+    <row r="506" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H506" s="3"/>
+    </row>
+    <row r="507" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H507" s="3"/>
+    </row>
+    <row r="508" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H508" s="3"/>
+    </row>
+    <row r="509" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H509" s="3"/>
+    </row>
+    <row r="510" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H510" s="3"/>
+    </row>
+    <row r="511" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H511" s="3"/>
+    </row>
+    <row r="512" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H512" s="3"/>
+    </row>
+    <row r="513" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H513" s="3"/>
+    </row>
+    <row r="514" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H514" s="3"/>
+    </row>
+    <row r="515" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H515" s="3"/>
+    </row>
+    <row r="516" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H516" s="3"/>
+    </row>
+    <row r="517" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H517" s="3"/>
+    </row>
+    <row r="518" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H518" s="3"/>
+    </row>
+    <row r="519" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H519" s="3"/>
+    </row>
+    <row r="520" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H520" s="3"/>
+    </row>
+    <row r="521" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H521" s="3"/>
+    </row>
+    <row r="522" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H522" s="3"/>
+    </row>
+    <row r="523" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H523" s="3"/>
+    </row>
+    <row r="524" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H524" s="3"/>
+    </row>
+    <row r="525" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H525" s="3"/>
+    </row>
+    <row r="526" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H526" s="3"/>
+    </row>
+    <row r="527" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H527" s="3"/>
+    </row>
+    <row r="528" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H528" s="3"/>
+    </row>
+    <row r="529" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H529" s="3"/>
+    </row>
+    <row r="530" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H530" s="3"/>
+    </row>
+    <row r="531" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H531" s="3"/>
+    </row>
+    <row r="532" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H532" s="3"/>
+    </row>
+    <row r="533" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H533" s="3"/>
+    </row>
+    <row r="534" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H534" s="3"/>
+    </row>
+    <row r="535" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H535" s="3"/>
+    </row>
+    <row r="536" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H536" s="3"/>
+    </row>
+    <row r="537" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H537" s="3"/>
+    </row>
+    <row r="538" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H538" s="3"/>
+    </row>
+    <row r="539" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H539" s="3"/>
+    </row>
+    <row r="540" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H540" s="3"/>
+    </row>
+    <row r="541" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H541" s="3"/>
+    </row>
+    <row r="542" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H542" s="3"/>
+    </row>
+    <row r="543" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H543" s="3"/>
+    </row>
+    <row r="544" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H544" s="3"/>
+    </row>
+    <row r="545" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H545" s="3"/>
+    </row>
+    <row r="546" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H546" s="3"/>
+    </row>
+    <row r="547" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H547" s="3"/>
+    </row>
+    <row r="548" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H548" s="3"/>
+    </row>
+    <row r="549" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H549" s="3"/>
+    </row>
+    <row r="550" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H550" s="3"/>
+    </row>
+    <row r="551" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H551" s="3"/>
+    </row>
+    <row r="552" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H552" s="3"/>
+    </row>
+    <row r="553" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H553" s="3"/>
+    </row>
+    <row r="554" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H554" s="3"/>
+    </row>
+    <row r="555" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H555" s="3"/>
+    </row>
+    <row r="556" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H556" s="3"/>
+    </row>
+    <row r="557" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H557" s="3"/>
+    </row>
+    <row r="558" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H558" s="3"/>
+    </row>
+    <row r="559" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H559" s="3"/>
+    </row>
+    <row r="560" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H560" s="3"/>
+    </row>
+    <row r="561" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H561" s="3"/>
+    </row>
+    <row r="562" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H562" s="3"/>
+    </row>
+    <row r="563" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H563" s="3"/>
+    </row>
+    <row r="564" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H564" s="3"/>
+    </row>
+    <row r="565" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H565" s="3"/>
+    </row>
+    <row r="566" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H566" s="3"/>
+    </row>
+    <row r="567" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H567" s="3"/>
+    </row>
+    <row r="568" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H568" s="3"/>
+    </row>
+    <row r="569" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H569" s="3"/>
+    </row>
+    <row r="570" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H570" s="3"/>
+    </row>
+    <row r="571" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H571" s="3"/>
+    </row>
+    <row r="572" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H572" s="3"/>
+    </row>
+    <row r="573" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H573" s="3"/>
+    </row>
+    <row r="574" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H574" s="3"/>
+    </row>
+    <row r="575" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H575" s="3"/>
+    </row>
+    <row r="576" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H576" s="3"/>
+    </row>
+    <row r="577" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H577" s="3"/>
+    </row>
+    <row r="578" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H578" s="3"/>
+    </row>
+    <row r="579" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H579" s="3"/>
+    </row>
+    <row r="580" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H580" s="3"/>
+    </row>
+    <row r="581" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H581" s="3"/>
+    </row>
+    <row r="582" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H582" s="3"/>
+    </row>
+    <row r="583" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H583" s="3"/>
+    </row>
+    <row r="584" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H584" s="3"/>
+    </row>
+    <row r="585" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H585" s="3"/>
+    </row>
+    <row r="586" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H586" s="3"/>
+    </row>
+    <row r="587" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H587" s="3"/>
+    </row>
+    <row r="588" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H588" s="3"/>
+    </row>
+    <row r="589" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H589" s="3"/>
+    </row>
+    <row r="590" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H590" s="3"/>
+    </row>
+    <row r="591" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H591" s="3"/>
+    </row>
+    <row r="592" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H592" s="3"/>
+    </row>
+    <row r="593" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H593" s="3"/>
+    </row>
+    <row r="594" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H594" s="3"/>
+    </row>
+    <row r="595" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H595" s="3"/>
+    </row>
+    <row r="596" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H596" s="3"/>
+    </row>
+    <row r="597" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H597" s="3"/>
+    </row>
+    <row r="598" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H598" s="3"/>
+    </row>
+    <row r="599" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H599" s="3"/>
+    </row>
+    <row r="600" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H600" s="3"/>
+    </row>
+    <row r="601" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H601" s="3"/>
+    </row>
+    <row r="602" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H602" s="3"/>
+    </row>
+    <row r="603" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H603" s="3"/>
+    </row>
+    <row r="604" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H604" s="3"/>
+    </row>
+    <row r="605" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H605" s="3"/>
+    </row>
+    <row r="606" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H606" s="3"/>
+    </row>
+    <row r="607" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H607" s="3"/>
+    </row>
+    <row r="608" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H608" s="3"/>
+    </row>
+    <row r="609" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H609" s="3"/>
+    </row>
+    <row r="610" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H610" s="3"/>
+    </row>
+    <row r="611" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H611" s="3"/>
+    </row>
+    <row r="612" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H612" s="3"/>
+    </row>
+    <row r="613" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H613" s="3"/>
+    </row>
+    <row r="614" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H614" s="3"/>
+    </row>
+    <row r="615" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H615" s="3"/>
+    </row>
+    <row r="616" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H616" s="3"/>
+    </row>
+    <row r="617" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H617" s="3"/>
+    </row>
+    <row r="618" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H618" s="3"/>
+    </row>
+    <row r="619" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H619" s="3"/>
+    </row>
+    <row r="620" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H620" s="3"/>
+    </row>
+    <row r="621" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H621" s="3"/>
+    </row>
+    <row r="622" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H622" s="3"/>
+    </row>
+    <row r="623" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H623" s="3"/>
+    </row>
+    <row r="624" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H624" s="3"/>
+    </row>
+    <row r="625" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H625" s="3"/>
+    </row>
+    <row r="626" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H626" s="3"/>
+    </row>
+    <row r="627" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H627" s="3"/>
+    </row>
+    <row r="628" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H628" s="3"/>
+    </row>
+    <row r="629" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H629" s="3"/>
+    </row>
+    <row r="630" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H630" s="3"/>
+    </row>
+    <row r="631" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H631" s="3"/>
+    </row>
+    <row r="632" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H632" s="3"/>
+    </row>
+    <row r="633" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H633" s="3"/>
+    </row>
+    <row r="634" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H634" s="3"/>
+    </row>
+    <row r="635" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H635" s="3"/>
+    </row>
+    <row r="636" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H636" s="3"/>
+    </row>
+    <row r="637" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H637" s="3"/>
+    </row>
+    <row r="638" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H638" s="3"/>
+    </row>
+    <row r="639" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H639" s="3"/>
+    </row>
+    <row r="640" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H640" s="3"/>
+    </row>
+    <row r="641" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H641" s="3"/>
+    </row>
+    <row r="642" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H642" s="3"/>
+    </row>
+    <row r="643" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H643" s="3"/>
+    </row>
+    <row r="644" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H644" s="3"/>
+    </row>
+    <row r="645" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H645" s="3"/>
+    </row>
+    <row r="646" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H646" s="3"/>
+    </row>
+    <row r="647" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H647" s="3"/>
+    </row>
+    <row r="648" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H648" s="3"/>
+    </row>
+    <row r="649" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H649" s="3"/>
+    </row>
+    <row r="650" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H650" s="3"/>
+    </row>
+    <row r="651" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H651" s="3"/>
+    </row>
+    <row r="652" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H652" s="3"/>
+    </row>
+    <row r="653" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H653" s="3"/>
+    </row>
+    <row r="654" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H654" s="3"/>
+    </row>
+    <row r="655" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H655" s="3"/>
+    </row>
+    <row r="656" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H656" s="3"/>
+    </row>
+    <row r="657" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H657" s="3"/>
+    </row>
+    <row r="658" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H658" s="3"/>
+    </row>
+    <row r="659" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H659" s="3"/>
+    </row>
+    <row r="660" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H660" s="3"/>
+    </row>
+    <row r="661" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H661" s="3"/>
+    </row>
+    <row r="662" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H662" s="3"/>
+    </row>
+    <row r="663" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H663" s="3"/>
+    </row>
+    <row r="664" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H664" s="3"/>
+    </row>
+    <row r="665" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H665" s="3"/>
+    </row>
+    <row r="666" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H666" s="3"/>
+    </row>
+    <row r="667" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H667" s="3"/>
+    </row>
+    <row r="668" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H668" s="3"/>
+    </row>
+    <row r="669" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H669" s="3"/>
+    </row>
+    <row r="670" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H670" s="3"/>
+    </row>
+    <row r="671" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H671" s="3"/>
+    </row>
+    <row r="672" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H672" s="3"/>
+    </row>
+    <row r="673" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H673" s="3"/>
+    </row>
+    <row r="674" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H674" s="3"/>
+    </row>
+    <row r="675" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H675" s="3"/>
+    </row>
+    <row r="676" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H676" s="3"/>
+    </row>
+    <row r="677" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H677" s="3"/>
+    </row>
+    <row r="678" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H678" s="3"/>
+    </row>
+    <row r="679" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H679" s="3"/>
+    </row>
+    <row r="680" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H680" s="3"/>
+    </row>
+    <row r="681" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H681" s="3"/>
+    </row>
+    <row r="682" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H682" s="3"/>
+    </row>
+    <row r="683" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H683" s="3"/>
+    </row>
+    <row r="684" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H684" s="3"/>
+    </row>
+    <row r="685" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H685" s="3"/>
+    </row>
+    <row r="686" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H686" s="3"/>
+    </row>
+    <row r="687" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H687" s="3"/>
+    </row>
+    <row r="688" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H688" s="3"/>
+    </row>
+    <row r="689" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H689" s="3"/>
+    </row>
+    <row r="690" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H690" s="3"/>
+    </row>
+    <row r="691" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H691" s="3"/>
+    </row>
+    <row r="692" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H692" s="3"/>
+    </row>
+    <row r="693" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H693" s="3"/>
+    </row>
+    <row r="694" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H694" s="3"/>
+    </row>
+    <row r="695" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H695" s="3"/>
+    </row>
+    <row r="696" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H696" s="3"/>
+    </row>
+    <row r="697" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H697" s="3"/>
+    </row>
+    <row r="698" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H698" s="3"/>
+    </row>
+    <row r="699" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H699" s="3"/>
+    </row>
+    <row r="700" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H700" s="3"/>
+    </row>
+    <row r="701" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H701" s="3"/>
+    </row>
+    <row r="702" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H702" s="3"/>
+    </row>
+    <row r="703" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H703" s="3"/>
+    </row>
+    <row r="704" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H704" s="3"/>
+    </row>
+    <row r="705" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H705" s="3"/>
+    </row>
+    <row r="706" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H706" s="3"/>
+    </row>
+    <row r="707" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H707" s="3"/>
+    </row>
+    <row r="708" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H708" s="3"/>
+    </row>
+    <row r="709" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H709" s="3"/>
+    </row>
+    <row r="710" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H710" s="3"/>
+    </row>
+    <row r="711" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H711" s="3"/>
+    </row>
+    <row r="712" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H712" s="3"/>
+    </row>
+    <row r="713" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H713" s="3"/>
+    </row>
+    <row r="714" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H714" s="3"/>
+    </row>
+    <row r="715" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H715" s="3"/>
+    </row>
+    <row r="716" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H716" s="3"/>
+    </row>
+    <row r="717" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H717" s="3"/>
+    </row>
+    <row r="718" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H718" s="3"/>
+    </row>
+    <row r="719" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H719" s="3"/>
+    </row>
+    <row r="720" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H720" s="3"/>
+    </row>
+    <row r="721" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H721" s="3"/>
+    </row>
+    <row r="722" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H722" s="3"/>
+    </row>
+    <row r="723" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H723" s="3"/>
+    </row>
+    <row r="724" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H724" s="3"/>
+    </row>
+    <row r="725" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H725" s="3"/>
+    </row>
+    <row r="726" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H726" s="3"/>
+    </row>
+    <row r="727" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H727" s="3"/>
+    </row>
+    <row r="728" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H728" s="3"/>
+    </row>
+    <row r="729" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H729" s="3"/>
+    </row>
+    <row r="730" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H730" s="3"/>
+    </row>
+    <row r="731" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H731" s="3"/>
+    </row>
+    <row r="732" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H732" s="3"/>
+    </row>
+    <row r="733" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H733" s="3"/>
+    </row>
+    <row r="734" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H734" s="3"/>
+    </row>
+    <row r="735" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H735" s="3"/>
+    </row>
+    <row r="736" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H736" s="3"/>
+    </row>
+    <row r="737" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H737" s="3"/>
+    </row>
+    <row r="738" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H738" s="3"/>
+    </row>
+    <row r="739" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H739" s="3"/>
+    </row>
+    <row r="740" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H740" s="3"/>
+    </row>
+    <row r="741" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H741" s="3"/>
+    </row>
+    <row r="742" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H742" s="3"/>
+    </row>
+    <row r="743" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H743" s="3"/>
+    </row>
+    <row r="744" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H744" s="3"/>
+    </row>
+    <row r="745" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H745" s="3"/>
+    </row>
+    <row r="746" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H746" s="3"/>
+    </row>
+    <row r="747" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H747" s="3"/>
+    </row>
+    <row r="748" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H748" s="3"/>
+    </row>
+    <row r="749" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H749" s="3"/>
+    </row>
+    <row r="750" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H750" s="3"/>
+    </row>
+    <row r="751" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H751" s="3"/>
+    </row>
+    <row r="752" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H752" s="3"/>
+    </row>
+    <row r="753" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H753" s="3"/>
+    </row>
+    <row r="754" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H754" s="3"/>
+    </row>
+    <row r="755" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H755" s="3"/>
+    </row>
+    <row r="756" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H756" s="3"/>
+    </row>
+    <row r="757" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H757" s="3"/>
+    </row>
+    <row r="758" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H758" s="3"/>
+    </row>
+    <row r="759" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H759" s="3"/>
+    </row>
+    <row r="760" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H760" s="3"/>
+    </row>
+    <row r="761" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H761" s="3"/>
+    </row>
+    <row r="762" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H762" s="3"/>
+    </row>
+    <row r="763" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H763" s="3"/>
+    </row>
+    <row r="764" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H764" s="3"/>
+    </row>
+    <row r="765" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H765" s="3"/>
+    </row>
+    <row r="766" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H766" s="3"/>
+    </row>
+    <row r="767" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H767" s="3"/>
+    </row>
+    <row r="768" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H768" s="3"/>
+    </row>
+    <row r="769" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H769" s="3"/>
+    </row>
+    <row r="770" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H770" s="3"/>
+    </row>
+    <row r="771" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H771" s="3"/>
+    </row>
+    <row r="772" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H772" s="3"/>
+    </row>
+    <row r="773" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H773" s="3"/>
+    </row>
+    <row r="774" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H774" s="3"/>
+    </row>
+    <row r="775" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H775" s="3"/>
+    </row>
+    <row r="776" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H776" s="3"/>
+    </row>
+    <row r="777" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H777" s="3"/>
+    </row>
+    <row r="778" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H778" s="3"/>
+    </row>
+    <row r="779" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H779" s="3"/>
+    </row>
+    <row r="780" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H780" s="3"/>
+    </row>
+    <row r="781" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H781" s="3"/>
+    </row>
+    <row r="782" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H782" s="3"/>
+    </row>
+    <row r="783" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H783" s="3"/>
+    </row>
+    <row r="784" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H784" s="3"/>
+    </row>
+    <row r="785" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H785" s="3"/>
+    </row>
+    <row r="786" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H786" s="3"/>
+    </row>
+    <row r="787" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H787" s="3"/>
+    </row>
+    <row r="788" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H788" s="3"/>
+    </row>
+    <row r="789" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H789" s="3"/>
+    </row>
+    <row r="790" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H790" s="3"/>
+    </row>
+    <row r="791" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H791" s="3"/>
+    </row>
+    <row r="792" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H792" s="3"/>
+    </row>
+    <row r="793" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H793" s="3"/>
+    </row>
+    <row r="794" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H794" s="3"/>
+    </row>
+    <row r="795" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H795" s="3"/>
+    </row>
+    <row r="796" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H796" s="3"/>
+    </row>
+    <row r="797" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H797" s="3"/>
+    </row>
+    <row r="798" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H798" s="3"/>
+    </row>
+    <row r="799" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H799" s="3"/>
+    </row>
+    <row r="800" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H800" s="3"/>
+    </row>
+    <row r="801" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H801" s="3"/>
+    </row>
+    <row r="802" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H802" s="3"/>
+    </row>
+    <row r="803" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H803" s="3"/>
+    </row>
+    <row r="804" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H804" s="3"/>
+    </row>
+    <row r="805" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H805" s="3"/>
+    </row>
+    <row r="806" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H806" s="3"/>
+    </row>
+    <row r="807" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H807" s="3"/>
+    </row>
+    <row r="808" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H808" s="3"/>
+    </row>
+    <row r="809" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H809" s="3"/>
+    </row>
+    <row r="810" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H810" s="3"/>
+    </row>
+    <row r="811" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H811" s="3"/>
+    </row>
+    <row r="812" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H812" s="3"/>
+    </row>
+    <row r="813" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H813" s="3"/>
+    </row>
+    <row r="814" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H814" s="3"/>
+    </row>
+    <row r="815" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H815" s="3"/>
+    </row>
+    <row r="816" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H816" s="3"/>
+    </row>
+    <row r="817" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H817" s="3"/>
+    </row>
+    <row r="818" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H818" s="3"/>
+    </row>
+    <row r="819" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H819" s="3"/>
+    </row>
+    <row r="820" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H820" s="3"/>
+    </row>
+    <row r="821" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H821" s="3"/>
+    </row>
+    <row r="822" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H822" s="3"/>
+    </row>
+    <row r="823" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H823" s="3"/>
+    </row>
+    <row r="824" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H824" s="3"/>
+    </row>
+    <row r="825" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H825" s="3"/>
+    </row>
+    <row r="826" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H826" s="3"/>
+    </row>
+    <row r="827" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H827" s="3"/>
+    </row>
+    <row r="828" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H828" s="3"/>
+    </row>
+    <row r="829" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H829" s="3"/>
+    </row>
+    <row r="830" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H830" s="3"/>
+    </row>
+    <row r="831" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H831" s="3"/>
+    </row>
+    <row r="832" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H832" s="3"/>
+    </row>
+    <row r="833" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H833" s="3"/>
+    </row>
+    <row r="834" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H834" s="3"/>
+    </row>
+    <row r="835" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H835" s="3"/>
+    </row>
+    <row r="836" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H836" s="3"/>
+    </row>
+    <row r="837" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H837" s="3"/>
+    </row>
+    <row r="838" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H838" s="3"/>
+    </row>
+    <row r="839" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H839" s="3"/>
+    </row>
+    <row r="840" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H840" s="3"/>
+    </row>
+    <row r="841" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H841" s="3"/>
+    </row>
+    <row r="842" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H842" s="3"/>
+    </row>
+    <row r="843" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H843" s="3"/>
+    </row>
+    <row r="844" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H844" s="3"/>
+    </row>
+    <row r="845" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H845" s="3"/>
+    </row>
+    <row r="846" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H846" s="3"/>
+    </row>
+    <row r="847" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H847" s="3"/>
+    </row>
+    <row r="848" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H848" s="3"/>
+    </row>
+    <row r="849" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H849" s="3"/>
+    </row>
+    <row r="850" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H850" s="3"/>
+    </row>
+    <row r="851" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H851" s="3"/>
+    </row>
+    <row r="852" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H852" s="3"/>
+    </row>
+    <row r="853" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H853" s="3"/>
+    </row>
+    <row r="854" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H854" s="3"/>
+    </row>
+    <row r="855" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H855" s="3"/>
+    </row>
+    <row r="856" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H856" s="3"/>
+    </row>
+    <row r="857" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H857" s="3"/>
+    </row>
+    <row r="858" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H858" s="3"/>
+    </row>
+    <row r="859" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H859" s="3"/>
+    </row>
+    <row r="860" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H860" s="3"/>
+    </row>
+    <row r="861" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H861" s="3"/>
+    </row>
+    <row r="862" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H862" s="3"/>
+    </row>
+    <row r="863" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H863" s="3"/>
+    </row>
+    <row r="864" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H864" s="3"/>
+    </row>
+    <row r="865" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H865" s="3"/>
+    </row>
+    <row r="866" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H866" s="3"/>
+    </row>
+    <row r="867" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H867" s="3"/>
+    </row>
+    <row r="868" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H868" s="3"/>
+    </row>
+    <row r="869" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H869" s="3"/>
+    </row>
+    <row r="870" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H870" s="3"/>
+    </row>
+    <row r="871" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H871" s="3"/>
+    </row>
+    <row r="872" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H872" s="3"/>
+    </row>
+    <row r="873" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H873" s="3"/>
+    </row>
+    <row r="874" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H874" s="3"/>
+    </row>
+    <row r="875" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H875" s="3"/>
+    </row>
+    <row r="876" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H876" s="3"/>
+    </row>
+    <row r="877" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H877" s="3"/>
+    </row>
+    <row r="878" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H878" s="3"/>
+    </row>
+    <row r="879" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H879" s="3"/>
+    </row>
+    <row r="880" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H880" s="3"/>
+    </row>
+    <row r="881" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H881" s="3"/>
+    </row>
+    <row r="882" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H882" s="3"/>
+    </row>
+    <row r="883" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H883" s="3"/>
+    </row>
+    <row r="884" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H884" s="3"/>
+    </row>
+    <row r="885" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H885" s="3"/>
+    </row>
+    <row r="886" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H886" s="3"/>
+    </row>
+    <row r="887" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H887" s="3"/>
+    </row>
+    <row r="888" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H888" s="3"/>
+    </row>
+    <row r="889" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H889" s="3"/>
+    </row>
+    <row r="890" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H890" s="3"/>
+    </row>
+    <row r="891" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H891" s="3"/>
+    </row>
+    <row r="892" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H892" s="3"/>
+    </row>
+    <row r="893" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H893" s="3"/>
+    </row>
+    <row r="894" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H894" s="3"/>
+    </row>
+    <row r="895" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H895" s="3"/>
+    </row>
+    <row r="896" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H896" s="3"/>
+    </row>
+    <row r="897" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H897" s="3"/>
+    </row>
+    <row r="898" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H898" s="3"/>
+    </row>
+    <row r="899" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H899" s="3"/>
+    </row>
+    <row r="900" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H900" s="3"/>
+    </row>
+    <row r="901" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H901" s="3"/>
+    </row>
+    <row r="902" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H902" s="3"/>
+    </row>
+    <row r="903" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H903" s="3"/>
+    </row>
+    <row r="904" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H904" s="3"/>
+    </row>
+    <row r="905" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H905" s="3"/>
+    </row>
+    <row r="906" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H906" s="3"/>
+    </row>
+    <row r="907" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H907" s="3"/>
+    </row>
+    <row r="908" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H908" s="3"/>
+    </row>
+    <row r="909" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H909" s="3"/>
+    </row>
+    <row r="910" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H910" s="3"/>
+    </row>
+    <row r="911" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H911" s="3"/>
+    </row>
+    <row r="912" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H912" s="3"/>
+    </row>
+    <row r="913" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H913" s="3"/>
+    </row>
+    <row r="914" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H914" s="3"/>
+    </row>
+    <row r="915" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H915" s="3"/>
+    </row>
+    <row r="916" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H916" s="3"/>
+    </row>
+    <row r="917" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H917" s="3"/>
+    </row>
+    <row r="918" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H918" s="3"/>
+    </row>
+    <row r="919" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H919" s="3"/>
+    </row>
+    <row r="920" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H920" s="3"/>
+    </row>
+    <row r="921" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H921" s="3"/>
+    </row>
+    <row r="922" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H922" s="3"/>
+    </row>
+    <row r="923" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H923" s="3"/>
+    </row>
+    <row r="924" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H924" s="3"/>
+    </row>
+    <row r="925" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H925" s="3"/>
+    </row>
+    <row r="926" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H926" s="3"/>
+    </row>
+    <row r="927" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H927" s="3"/>
+    </row>
+    <row r="928" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H928" s="3"/>
+    </row>
+    <row r="929" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H929" s="3"/>
+    </row>
+    <row r="930" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H930" s="3"/>
+    </row>
+    <row r="931" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H931" s="3"/>
+    </row>
+    <row r="932" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H932" s="3"/>
+    </row>
+    <row r="933" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H933" s="3"/>
+    </row>
+    <row r="934" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H934" s="3"/>
+    </row>
+    <row r="935" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H935" s="3"/>
+    </row>
+    <row r="936" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H936" s="3"/>
+    </row>
+    <row r="937" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H937" s="3"/>
+    </row>
+    <row r="938" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H938" s="3"/>
+    </row>
+    <row r="939" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H939" s="3"/>
+    </row>
+    <row r="940" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H940" s="3"/>
+    </row>
+    <row r="941" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H941" s="3"/>
+    </row>
+    <row r="942" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H942" s="3"/>
+    </row>
+    <row r="943" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H943" s="3"/>
+    </row>
+    <row r="944" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H944" s="3"/>
+    </row>
+    <row r="945" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H945" s="3"/>
+    </row>
+    <row r="946" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H946" s="3"/>
+    </row>
+    <row r="947" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H947" s="3"/>
+    </row>
+    <row r="948" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H948" s="3"/>
+    </row>
+    <row r="949" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H949" s="3"/>
+    </row>
+    <row r="950" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H950" s="3"/>
+    </row>
+    <row r="951" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H951" s="3"/>
+    </row>
+    <row r="952" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H952" s="3"/>
+    </row>
+    <row r="953" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H953" s="3"/>
+    </row>
+    <row r="954" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H954" s="3"/>
+    </row>
+    <row r="955" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H955" s="3"/>
+    </row>
+    <row r="956" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H956" s="3"/>
+    </row>
+    <row r="957" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H957" s="3"/>
+    </row>
+    <row r="958" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H958" s="3"/>
+    </row>
+    <row r="959" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H959" s="3"/>
+    </row>
+    <row r="960" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H960" s="3"/>
+    </row>
+    <row r="961" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H961" s="3"/>
+    </row>
+    <row r="962" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H962" s="3"/>
+    </row>
+    <row r="963" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H963" s="3"/>
+    </row>
+    <row r="964" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H964" s="3"/>
+    </row>
+    <row r="965" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H965" s="3"/>
+    </row>
+    <row r="966" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H966" s="3"/>
+    </row>
+    <row r="967" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H967" s="3"/>
+    </row>
+    <row r="968" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H968" s="3"/>
+    </row>
+    <row r="969" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H969" s="3"/>
+    </row>
+    <row r="970" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H970" s="3"/>
+    </row>
+    <row r="971" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H971" s="3"/>
+    </row>
+    <row r="972" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H972" s="3"/>
+    </row>
+    <row r="973" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H973" s="3"/>
+    </row>
+    <row r="974" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H974" s="3"/>
+    </row>
+    <row r="975" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H975" s="3"/>
+    </row>
+    <row r="976" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H976" s="3"/>
+    </row>
+    <row r="977" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H977" s="3"/>
+    </row>
+    <row r="978" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H978" s="3"/>
+    </row>
+    <row r="979" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H979" s="3"/>
+    </row>
+    <row r="980" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H980" s="3"/>
+    </row>
+    <row r="981" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H981" s="3"/>
+    </row>
+    <row r="982" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H982" s="3"/>
+    </row>
+    <row r="983" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H983" s="3"/>
+    </row>
+    <row r="984" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H984" s="3"/>
+    </row>
+    <row r="985" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H985" s="3"/>
+    </row>
+    <row r="986" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H986" s="3"/>
+    </row>
+    <row r="987" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H987" s="3"/>
+    </row>
+    <row r="988" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H988" s="3"/>
+    </row>
+    <row r="989" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H989" s="3"/>
+    </row>
+    <row r="990" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H990" s="3"/>
+    </row>
+    <row r="991" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H991" s="3"/>
+    </row>
+    <row r="992" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H992" s="3"/>
+    </row>
+    <row r="993" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H993" s="3"/>
+    </row>
+    <row r="994" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H994" s="3"/>
+    </row>
+    <row r="995" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H995" s="3"/>
+    </row>
+    <row r="996" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H996" s="3"/>
+    </row>
+    <row r="997" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H997" s="3"/>
+    </row>
+    <row r="998" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H998" s="3"/>
+    </row>
+    <row r="999" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H999" s="3"/>
+    </row>
+    <row r="1000" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1000" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B45:D45"/>
